--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Npnt</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Npnt</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.0953135</v>
+        <v>0.756895</v>
       </c>
       <c r="H2">
-        <v>4.190627</v>
+        <v>1.51379</v>
       </c>
       <c r="I2">
-        <v>0.2910351729706789</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="J2">
-        <v>0.2770980890233866</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>344.8409766718017</v>
+        <v>152.5565435591725</v>
       </c>
       <c r="R2">
-        <v>1379.363906687207</v>
+        <v>610.22617423669</v>
       </c>
       <c r="S2">
-        <v>0.06754243808830114</v>
+        <v>0.04342793474503411</v>
       </c>
       <c r="T2">
-        <v>0.05003277635214327</v>
+        <v>0.03504680189762503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.0953135</v>
+        <v>0.756895</v>
       </c>
       <c r="H3">
-        <v>4.190627</v>
+        <v>1.51379</v>
       </c>
       <c r="I3">
-        <v>0.2910351729706789</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="J3">
-        <v>0.2770980890233866</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>248.848499776828</v>
+        <v>89.89212604155999</v>
       </c>
       <c r="R3">
-        <v>1493.090998660968</v>
+        <v>539.35275624936</v>
       </c>
       <c r="S3">
-        <v>0.04874082700890758</v>
+        <v>0.02558939323576808</v>
       </c>
       <c r="T3">
-        <v>0.05415792572738579</v>
+        <v>0.0309763658119941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.0953135</v>
+        <v>0.756895</v>
       </c>
       <c r="H4">
-        <v>4.190627</v>
+        <v>1.51379</v>
       </c>
       <c r="I4">
-        <v>0.2910351729706789</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="J4">
-        <v>0.2770980890233866</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>177.1209506835195</v>
+        <v>58.74484445521166</v>
       </c>
       <c r="R4">
-        <v>1062.725704101117</v>
+        <v>352.46906673127</v>
       </c>
       <c r="S4">
-        <v>0.03469187728542037</v>
+        <v>0.01672276529140543</v>
       </c>
       <c r="T4">
-        <v>0.0385475632783993</v>
+        <v>0.02024317225039292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.0953135</v>
+        <v>0.756895</v>
       </c>
       <c r="H5">
-        <v>4.190627</v>
+        <v>1.51379</v>
       </c>
       <c r="I5">
-        <v>0.2910351729706789</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="J5">
-        <v>0.2770980890233866</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>293.1516753684207</v>
+        <v>130.2160201426425</v>
       </c>
       <c r="R5">
-        <v>1172.606701473683</v>
+        <v>520.86408057057</v>
       </c>
       <c r="S5">
-        <v>0.05741828907675869</v>
+        <v>0.03706830722288421</v>
       </c>
       <c r="T5">
-        <v>0.04253320574753977</v>
+        <v>0.02991451533553017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.0953135</v>
+        <v>0.756895</v>
       </c>
       <c r="H6">
-        <v>4.190627</v>
+        <v>1.51379</v>
       </c>
       <c r="I6">
-        <v>0.2910351729706789</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="J6">
-        <v>0.2770980890233866</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>255.069393364534</v>
+        <v>45.30188062177166</v>
       </c>
       <c r="R6">
-        <v>1530.416360187204</v>
+        <v>271.81128373063</v>
       </c>
       <c r="S6">
-        <v>0.04995928522131845</v>
+        <v>0.01289598642949417</v>
       </c>
       <c r="T6">
-        <v>0.05551180446558635</v>
+        <v>0.01561079582723965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.0953135</v>
+        <v>0.756895</v>
       </c>
       <c r="H7">
-        <v>4.190627</v>
+        <v>1.51379</v>
       </c>
       <c r="I7">
-        <v>0.2910351729706789</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="J7">
-        <v>0.2770980890233866</v>
+        <v>0.1542908069672473</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>166.8617607841392</v>
+        <v>65.29161507436332</v>
       </c>
       <c r="R7">
-        <v>1001.170564704835</v>
+        <v>391.74969044618</v>
       </c>
       <c r="S7">
-        <v>0.03268245628997264</v>
+        <v>0.0185864200426613</v>
       </c>
       <c r="T7">
-        <v>0.03631481345233215</v>
+        <v>0.02249915584446542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.379984</v>
+        <v>4.148744</v>
       </c>
       <c r="H8">
-        <v>8.759968000000001</v>
+        <v>8.297488</v>
       </c>
       <c r="I8">
-        <v>0.6083716833060094</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="J8">
-        <v>0.5792379977282679</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>720.8458115536721</v>
+        <v>836.203231296092</v>
       </c>
       <c r="R8">
-        <v>2883.383246214688</v>
+        <v>3344.812925184368</v>
       </c>
       <c r="S8">
-        <v>0.1411887997417807</v>
+        <v>0.23804012935196</v>
       </c>
       <c r="T8">
-        <v>0.1045870987315101</v>
+        <v>0.1921008978682122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.379984</v>
+        <v>4.148744</v>
       </c>
       <c r="H9">
-        <v>8.759968000000001</v>
+        <v>8.297488</v>
       </c>
       <c r="I9">
-        <v>0.6083716833060094</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="J9">
-        <v>0.5792379977282679</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>520.185856410752</v>
+        <v>492.7227932040319</v>
       </c>
       <c r="R9">
-        <v>3121.115138464512</v>
+        <v>2956.336759224192</v>
       </c>
       <c r="S9">
-        <v>0.1018864444131072</v>
+        <v>0.1402623106910911</v>
       </c>
       <c r="T9">
-        <v>0.1132101941590784</v>
+        <v>0.1697897486498334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.379984</v>
+        <v>4.148744</v>
       </c>
       <c r="H10">
-        <v>8.759968000000001</v>
+        <v>8.297488</v>
       </c>
       <c r="I10">
-        <v>0.6083716833060094</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="J10">
-        <v>0.5792379977282679</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>370.248619148688</v>
+        <v>321.9962094669573</v>
       </c>
       <c r="R10">
-        <v>2221.491714892128</v>
+        <v>1931.977256801744</v>
       </c>
       <c r="S10">
-        <v>0.07251891778490649</v>
+        <v>0.09166195068817541</v>
       </c>
       <c r="T10">
-        <v>0.08057873458953826</v>
+        <v>0.110958243104769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.379984</v>
+        <v>4.148744</v>
       </c>
       <c r="H11">
-        <v>8.759968000000001</v>
+        <v>8.297488</v>
       </c>
       <c r="I11">
-        <v>0.6083716833060094</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="J11">
-        <v>0.5792379977282679</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>612.795959977768</v>
+        <v>713.748845309676</v>
       </c>
       <c r="R11">
-        <v>2451.183839911072</v>
+        <v>2854.995381238704</v>
       </c>
       <c r="S11">
-        <v>0.1200255653693721</v>
+        <v>0.2031813094036789</v>
       </c>
       <c r="T11">
-        <v>0.08891020873150116</v>
+        <v>0.1639694620934063</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.379984</v>
+        <v>4.148744</v>
       </c>
       <c r="H12">
-        <v>8.759968000000001</v>
+        <v>8.297488</v>
       </c>
       <c r="I12">
-        <v>0.6083716833060094</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="J12">
-        <v>0.5792379977282679</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>533.189836187456</v>
+        <v>248.3117280709893</v>
       </c>
       <c r="R12">
-        <v>3199.139017124736</v>
+        <v>1489.870368425936</v>
       </c>
       <c r="S12">
-        <v>0.104433474952942</v>
+        <v>0.07068635190276769</v>
       </c>
       <c r="T12">
-        <v>0.1160403039308422</v>
+        <v>0.08556694855096883</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.379984</v>
+        <v>4.148744</v>
       </c>
       <c r="H13">
-        <v>8.759968000000001</v>
+        <v>8.297488</v>
       </c>
       <c r="I13">
-        <v>0.6083716833060094</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="J13">
-        <v>0.5792379977282679</v>
+        <v>0.8457091930327527</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,772 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>348.8030991287734</v>
+        <v>357.8808107994826</v>
       </c>
       <c r="R13">
-        <v>2092.818594772641</v>
+        <v>2147.284864796896</v>
       </c>
       <c r="S13">
-        <v>0.06831848104390086</v>
+        <v>0.1018771409950796</v>
       </c>
       <c r="T13">
-        <v>0.0759114575857978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.6725316666666666</v>
-      </c>
-      <c r="H14">
-        <v>2.017595</v>
-      </c>
-      <c r="I14">
-        <v>0.09341340564864985</v>
-      </c>
-      <c r="J14">
-        <v>0.1334100407703047</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>164.5772705</v>
-      </c>
-      <c r="N14">
-        <v>329.154541</v>
-      </c>
-      <c r="O14">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P14">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q14">
-        <v>110.6834260248158</v>
-      </c>
-      <c r="R14">
-        <v>664.100556148895</v>
-      </c>
-      <c r="S14">
-        <v>0.02167906065524577</v>
-      </c>
-      <c r="T14">
-        <v>0.0240884906731624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.6725316666666666</v>
-      </c>
-      <c r="H15">
-        <v>2.017595</v>
-      </c>
-      <c r="I15">
-        <v>0.09341340564864985</v>
-      </c>
-      <c r="J15">
-        <v>0.1334100407703047</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>118.764328</v>
-      </c>
-      <c r="N15">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O15">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P15">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q15">
-        <v>79.87277145038665</v>
-      </c>
-      <c r="R15">
-        <v>718.8549430534799</v>
-      </c>
-      <c r="S15">
-        <v>0.01564431748423913</v>
-      </c>
-      <c r="T15">
-        <v>0.02607456119524475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.6725316666666666</v>
-      </c>
-      <c r="H16">
-        <v>2.017595</v>
-      </c>
-      <c r="I16">
-        <v>0.09341340564864985</v>
-      </c>
-      <c r="J16">
-        <v>0.1334100407703047</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N16">
-        <v>253.595871</v>
-      </c>
-      <c r="O16">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P16">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q16">
-        <v>56.85041792780499</v>
-      </c>
-      <c r="R16">
-        <v>511.653761350245</v>
-      </c>
-      <c r="S16">
-        <v>0.01113503351673114</v>
-      </c>
-      <c r="T16">
-        <v>0.01855888651809909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.6725316666666666</v>
-      </c>
-      <c r="H17">
-        <v>2.017595</v>
-      </c>
-      <c r="I17">
-        <v>0.09341340564864985</v>
-      </c>
-      <c r="J17">
-        <v>0.1334100407703047</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>139.9082645</v>
-      </c>
-      <c r="N17">
-        <v>279.816529</v>
-      </c>
-      <c r="O17">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P17">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q17">
-        <v>94.09273830462583</v>
-      </c>
-      <c r="R17">
-        <v>564.556429827755</v>
-      </c>
-      <c r="S17">
-        <v>0.01842951789789021</v>
-      </c>
-      <c r="T17">
-        <v>0.02047779085330369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.6725316666666666</v>
-      </c>
-      <c r="H18">
-        <v>2.017595</v>
-      </c>
-      <c r="I18">
-        <v>0.09341340564864985</v>
-      </c>
-      <c r="J18">
-        <v>0.1334100407703047</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>121.733284</v>
-      </c>
-      <c r="N18">
-        <v>365.199852</v>
-      </c>
-      <c r="O18">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P18">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q18">
-        <v>81.86948837732665</v>
-      </c>
-      <c r="R18">
-        <v>736.8253953959399</v>
-      </c>
-      <c r="S18">
-        <v>0.01603540537268942</v>
-      </c>
-      <c r="T18">
-        <v>0.02672639180980428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.6725316666666666</v>
-      </c>
-      <c r="H19">
-        <v>2.017595</v>
-      </c>
-      <c r="I19">
-        <v>0.09341340564864985</v>
-      </c>
-      <c r="J19">
-        <v>0.1334100407703047</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N19">
-        <v>238.907105</v>
-      </c>
-      <c r="O19">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P19">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q19">
-        <v>53.55753116805278</v>
-      </c>
-      <c r="R19">
-        <v>482.017780512475</v>
-      </c>
-      <c r="S19">
-        <v>0.01049007072185417</v>
-      </c>
-      <c r="T19">
-        <v>0.0174839197206905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.05169066666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.155072</v>
-      </c>
-      <c r="I20">
-        <v>0.007179738074661878</v>
-      </c>
-      <c r="J20">
-        <v>0.01025387247804078</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>164.5772705</v>
-      </c>
-      <c r="N20">
-        <v>329.154541</v>
-      </c>
-      <c r="O20">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P20">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q20">
-        <v>8.507108830325334</v>
-      </c>
-      <c r="R20">
-        <v>51.042652981952</v>
-      </c>
-      <c r="S20">
-        <v>0.001666248822945275</v>
-      </c>
-      <c r="T20">
-        <v>0.001851437194119057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.05169066666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.155072</v>
-      </c>
-      <c r="I21">
-        <v>0.007179738074661878</v>
-      </c>
-      <c r="J21">
-        <v>0.01025387247804078</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>118.764328</v>
-      </c>
-      <c r="N21">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O21">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P21">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q21">
-        <v>6.139007290538665</v>
-      </c>
-      <c r="R21">
-        <v>55.251065614848</v>
-      </c>
-      <c r="S21">
-        <v>0.001202419514776717</v>
-      </c>
-      <c r="T21">
-        <v>0.002004086228241542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.05169066666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.155072</v>
-      </c>
-      <c r="I22">
-        <v>0.007179738074661878</v>
-      </c>
-      <c r="J22">
-        <v>0.01025387247804078</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N22">
-        <v>253.595871</v>
-      </c>
-      <c r="O22">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P22">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q22">
-        <v>4.369513211968</v>
-      </c>
-      <c r="R22">
-        <v>39.32561890771201</v>
-      </c>
-      <c r="S22">
-        <v>0.0008558367350764309</v>
-      </c>
-      <c r="T22">
-        <v>0.001426432782661864</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.05169066666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.155072</v>
-      </c>
-      <c r="I23">
-        <v>0.007179738074661878</v>
-      </c>
-      <c r="J23">
-        <v>0.01025387247804078</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>139.9082645</v>
-      </c>
-      <c r="N23">
-        <v>279.816529</v>
-      </c>
-      <c r="O23">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P23">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q23">
-        <v>7.231951464181334</v>
-      </c>
-      <c r="R23">
-        <v>43.39170878508801</v>
-      </c>
-      <c r="S23">
-        <v>0.001416489533063688</v>
-      </c>
-      <c r="T23">
-        <v>0.001573919435369096</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.05169066666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.155072</v>
-      </c>
-      <c r="I24">
-        <v>0.007179738074661878</v>
-      </c>
-      <c r="J24">
-        <v>0.01025387247804078</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>121.733284</v>
-      </c>
-      <c r="N24">
-        <v>365.199852</v>
-      </c>
-      <c r="O24">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P24">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q24">
-        <v>6.292474605482666</v>
-      </c>
-      <c r="R24">
-        <v>56.632271449344</v>
-      </c>
-      <c r="S24">
-        <v>0.001232478461709953</v>
-      </c>
-      <c r="T24">
-        <v>0.002054185815651788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.05169066666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.155072</v>
-      </c>
-      <c r="I25">
-        <v>0.007179738074661878</v>
-      </c>
-      <c r="J25">
-        <v>0.01025387247804078</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N25">
-        <v>238.907105</v>
-      </c>
-      <c r="O25">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P25">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q25">
-        <v>4.116422509617778</v>
-      </c>
-      <c r="R25">
-        <v>37.04780258656001</v>
-      </c>
-      <c r="S25">
-        <v>0.0008062650070898124</v>
-      </c>
-      <c r="T25">
-        <v>0.001343811021997436</v>
+        <v>0.123323892765563</v>
       </c>
     </row>
   </sheetData>
